--- a/待填工時表單-20221121-2-2-2-3.xlsx
+++ b/待填工時表單-20221121-2-2-2-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\November\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ga_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A2D8E7-B0A7-4311-BC9C-16D451C5D514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781916BF-FD2B-4779-94EE-8D9B3804B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="2460" windowWidth="25545" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="待填工時表" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:M15"/>
+      <selection activeCell="L17" sqref="L17:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,28 +693,18 @@
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3">
-        <v>257</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
-        <v>85</v>
-      </c>
-      <c r="J3" s="3">
-        <v>12</v>
-      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="3">
-        <v>67</v>
-      </c>
-      <c r="M3" s="3">
-        <v>8</v>
-      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="1"/>
       <c r="O3" s="3">
         <v>9</v>
@@ -1529,35 +1519,11 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="O31:O36"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="P17:P22"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="O24:O29"/>
-    <mergeCell ref="P24:P29"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P3:P8"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="F10:F15"/>
@@ -1574,11 +1540,35 @@
     <mergeCell ref="I3:I8"/>
     <mergeCell ref="J3:J8"/>
     <mergeCell ref="L3:L8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="O24:O29"/>
+    <mergeCell ref="P24:P29"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="O31:O36"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
